--- a/cllg/colleges.xlsx
+++ b/cllg/colleges.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Pope St John XXIII National Seminary</t>
+          <t>Harvard University</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>167464</v>
+        <v>166027</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weston</t>
+          <t>Cambridge</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +498,9 @@
           <t>ADM_RATE_ALL</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.0464</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -506,7 +508,9 @@
           <t>SATVR75</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>770</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -514,7 +518,9 @@
           <t>SATMT75</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -522,7 +528,9 @@
           <t>SATMTMID</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>775</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -530,7 +538,9 @@
           <t>SAT_AVG_ALL</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>1517</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -538,7 +548,9 @@
           <t>UGDS</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>7547</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -546,7 +558,9 @@
           <t>UGDS_WHITE</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>0.3893</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>UGDS_ASIAN</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.1993</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -562,7 +578,9 @@
           <t>TUITIONFEE_IN</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>51925</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -570,7 +588,9 @@
           <t>TUITIONFEE_OUT</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>51925</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
